--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.835473666666667</v>
+        <v>3.505502</v>
       </c>
       <c r="H2">
-        <v>8.506421</v>
+        <v>10.516506</v>
       </c>
       <c r="I2">
-        <v>0.1177775131860915</v>
+        <v>0.1326654026551307</v>
       </c>
       <c r="J2">
-        <v>0.1254491357467524</v>
+        <v>0.1444902445062344</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07058066666666667</v>
+        <v>0.011782</v>
       </c>
       <c r="N2">
-        <v>0.211742</v>
+        <v>0.035346</v>
       </c>
       <c r="O2">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P2">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q2">
-        <v>0.2001296217091111</v>
+        <v>0.041301824564</v>
       </c>
       <c r="R2">
-        <v>1.801166595382</v>
+        <v>0.371716421076</v>
       </c>
       <c r="S2">
-        <v>0.01131051973219038</v>
+        <v>0.002460321818500954</v>
       </c>
       <c r="T2">
-        <v>0.01334384797145489</v>
+        <v>0.002754255260846876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.835473666666667</v>
+        <v>3.505502</v>
       </c>
       <c r="H3">
-        <v>8.506421</v>
+        <v>10.516506</v>
       </c>
       <c r="I3">
-        <v>0.1177775131860915</v>
+        <v>0.1326654026551307</v>
       </c>
       <c r="J3">
-        <v>0.1254491357467524</v>
+        <v>0.1444902445062344</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4501370000000001</v>
+        <v>0.450137</v>
       </c>
       <c r="N3">
         <v>1.350411</v>
       </c>
       <c r="O3">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P3">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q3">
-        <v>1.276351609892334</v>
+        <v>1.577956153774</v>
       </c>
       <c r="R3">
-        <v>11.487164489031</v>
+        <v>14.201605383966</v>
       </c>
       <c r="S3">
-        <v>0.0721342495209592</v>
+        <v>0.09399778326384008</v>
       </c>
       <c r="T3">
-        <v>0.08510205383429065</v>
+        <v>0.1052276523809056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.835473666666667</v>
+        <v>3.505502</v>
       </c>
       <c r="H4">
-        <v>8.506421</v>
+        <v>10.516506</v>
       </c>
       <c r="I4">
-        <v>0.1177775131860915</v>
+        <v>0.1326654026551307</v>
       </c>
       <c r="J4">
-        <v>0.1254491357467524</v>
+        <v>0.1444902445062344</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2142455</v>
+        <v>0.051649</v>
       </c>
       <c r="N4">
-        <v>0.428491</v>
+        <v>0.103298</v>
       </c>
       <c r="O4">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P4">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q4">
-        <v>0.6074874734518334</v>
+        <v>0.181055672798</v>
       </c>
       <c r="R4">
-        <v>3.644924840711</v>
+        <v>1.086334036788</v>
       </c>
       <c r="S4">
-        <v>0.03433274393294189</v>
+        <v>0.01078536425087046</v>
       </c>
       <c r="T4">
-        <v>0.02700323394100687</v>
+        <v>0.008049257622785055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.985602333333333</v>
+        <v>3.505502</v>
       </c>
       <c r="H5">
-        <v>20.956807</v>
+        <v>10.516506</v>
       </c>
       <c r="I5">
-        <v>0.2901620567311298</v>
+        <v>0.1326654026551307</v>
       </c>
       <c r="J5">
-        <v>0.3090622161966227</v>
+        <v>0.1444902445062344</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07058066666666667</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N5">
-        <v>0.211742</v>
+        <v>0.365222</v>
       </c>
       <c r="O5">
-        <v>0.09603293044844197</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P5">
-        <v>0.1063685922746608</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q5">
-        <v>0.4930484697548888</v>
+        <v>0.4267621504813333</v>
       </c>
       <c r="R5">
-        <v>4.437436227794</v>
+        <v>3.840859354332</v>
       </c>
       <c r="S5">
-        <v>0.02786511261283746</v>
+        <v>0.02542193332191918</v>
       </c>
       <c r="T5">
-        <v>0.03287451286212164</v>
+        <v>0.02845907924169687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>20.956807</v>
       </c>
       <c r="I6">
-        <v>0.2901620567311298</v>
+        <v>0.2643694815579301</v>
       </c>
       <c r="J6">
-        <v>0.3090622161966227</v>
+        <v>0.2879334797602897</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4501370000000001</v>
+        <v>0.011782</v>
       </c>
       <c r="N6">
-        <v>1.350411</v>
+        <v>0.035346</v>
       </c>
       <c r="O6">
-        <v>0.612461985056394</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P6">
-        <v>0.678378956759722</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q6">
-        <v>3.144478077519667</v>
+        <v>0.08230436669133334</v>
       </c>
       <c r="R6">
-        <v>28.300302697677</v>
+        <v>0.7407393002220001</v>
       </c>
       <c r="S6">
-        <v>0.1777132292535938</v>
+        <v>0.004902815584207676</v>
       </c>
       <c r="T6">
-        <v>0.2096613037973125</v>
+        <v>0.005488552560166145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>20.956807</v>
       </c>
       <c r="I7">
-        <v>0.2901620567311298</v>
+        <v>0.2643694815579301</v>
       </c>
       <c r="J7">
-        <v>0.3090622161966227</v>
+        <v>0.2879334797602897</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2142455</v>
+        <v>0.450137</v>
       </c>
       <c r="N7">
-        <v>0.428491</v>
+        <v>1.350411</v>
       </c>
       <c r="O7">
-        <v>0.291505084495164</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P7">
-        <v>0.2152524509656171</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q7">
-        <v>1.496633864706167</v>
+        <v>3.144478077519667</v>
       </c>
       <c r="R7">
-        <v>8.979803188237</v>
+        <v>28.300302697677</v>
       </c>
       <c r="S7">
-        <v>0.08458371486469857</v>
+        <v>0.1873144371607953</v>
       </c>
       <c r="T7">
-        <v>0.06652639953718847</v>
+        <v>0.2096928012031496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.277146666666667</v>
+        <v>6.985602333333333</v>
       </c>
       <c r="H8">
-        <v>15.83144</v>
+        <v>20.956807</v>
       </c>
       <c r="I8">
-        <v>0.2191976664868593</v>
+        <v>0.2643694815579301</v>
       </c>
       <c r="J8">
-        <v>0.2334754493842435</v>
+        <v>0.2879334797602897</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.07058066666666667</v>
+        <v>0.051649</v>
       </c>
       <c r="N8">
-        <v>0.211742</v>
+        <v>0.103298</v>
       </c>
       <c r="O8">
-        <v>0.09603293044844197</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P8">
-        <v>0.1063685922746608</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q8">
-        <v>0.3724645298311111</v>
+        <v>0.3607993749143333</v>
       </c>
       <c r="R8">
-        <v>3.35218076848</v>
+        <v>2.164796249486</v>
       </c>
       <c r="S8">
-        <v>0.02105019426019333</v>
+        <v>0.02149257529356155</v>
       </c>
       <c r="T8">
-        <v>0.02483445488169582</v>
+        <v>0.01604018848978788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.277146666666667</v>
+        <v>6.985602333333333</v>
       </c>
       <c r="H9">
-        <v>15.83144</v>
+        <v>20.956807</v>
       </c>
       <c r="I9">
-        <v>0.2191976664868593</v>
+        <v>0.2643694815579301</v>
       </c>
       <c r="J9">
-        <v>0.2334754493842435</v>
+        <v>0.2879334797602897</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4501370000000001</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N9">
-        <v>1.350411</v>
+        <v>0.365222</v>
       </c>
       <c r="O9">
-        <v>0.612461985056394</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P9">
-        <v>0.678378956759722</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q9">
-        <v>2.375438969093334</v>
+        <v>0.8504318851282222</v>
       </c>
       <c r="R9">
-        <v>21.37895072184001</v>
+        <v>7.653886966154</v>
       </c>
       <c r="S9">
-        <v>0.1342502379362712</v>
+        <v>0.05065965351936556</v>
       </c>
       <c r="T9">
-        <v>0.1583848317822904</v>
+        <v>0.05671193750718609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.277146666666667</v>
+        <v>4.346963</v>
       </c>
       <c r="H10">
-        <v>15.83144</v>
+        <v>13.040889</v>
       </c>
       <c r="I10">
-        <v>0.2191976664868593</v>
+        <v>0.1645104172589132</v>
       </c>
       <c r="J10">
-        <v>0.2334754493842435</v>
+        <v>0.1791736951596531</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2142455</v>
+        <v>0.011782</v>
       </c>
       <c r="N10">
-        <v>0.428491</v>
+        <v>0.035346</v>
       </c>
       <c r="O10">
-        <v>0.291505084495164</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P10">
-        <v>0.2152524509656171</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q10">
-        <v>1.130604926173333</v>
+        <v>0.051215918066</v>
       </c>
       <c r="R10">
-        <v>6.78362955704</v>
+        <v>0.460943262594</v>
       </c>
       <c r="S10">
-        <v>0.06389723429039469</v>
+        <v>0.003050897678311512</v>
       </c>
       <c r="T10">
-        <v>0.05025616272025731</v>
+        <v>0.003415386929306193</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.346963</v>
+      </c>
+      <c r="H11">
+        <v>13.040889</v>
+      </c>
+      <c r="I11">
+        <v>0.1645104172589132</v>
+      </c>
+      <c r="J11">
+        <v>0.1791736951596531</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.4167625</v>
-      </c>
-      <c r="H11">
-        <v>8.833525</v>
-      </c>
-      <c r="I11">
-        <v>0.1834597547841511</v>
-      </c>
-      <c r="J11">
-        <v>0.1302731285986587</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07058066666666667</v>
+        <v>0.450137</v>
       </c>
       <c r="N11">
-        <v>0.211742</v>
+        <v>1.350411</v>
       </c>
       <c r="O11">
-        <v>0.09603293044844197</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P11">
-        <v>0.1063685922746608</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q11">
-        <v>0.3117380417583333</v>
+        <v>1.956728883931</v>
       </c>
       <c r="R11">
-        <v>1.87042825055</v>
+        <v>17.610559955379</v>
       </c>
       <c r="S11">
-        <v>0.0176181778712746</v>
+        <v>0.1165610192006543</v>
       </c>
       <c r="T11">
-        <v>0.01385696930025519</v>
+        <v>0.1304865070613734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.4167625</v>
+        <v>4.346963</v>
       </c>
       <c r="H12">
-        <v>8.833525</v>
+        <v>13.040889</v>
       </c>
       <c r="I12">
-        <v>0.1834597547841511</v>
+        <v>0.1645104172589132</v>
       </c>
       <c r="J12">
-        <v>0.1302731285986587</v>
+        <v>0.1791736951596531</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.4501370000000001</v>
+        <v>0.051649</v>
       </c>
       <c r="N12">
-        <v>1.350411</v>
+        <v>0.103298</v>
       </c>
       <c r="O12">
-        <v>0.612461985056394</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P12">
-        <v>0.678378956759722</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q12">
-        <v>1.9881482214625</v>
+        <v>0.224516291987</v>
       </c>
       <c r="R12">
-        <v>11.928889328775</v>
+        <v>1.347097751922</v>
       </c>
       <c r="S12">
-        <v>0.1123621255930604</v>
+        <v>0.01337428400841209</v>
       </c>
       <c r="T12">
-        <v>0.08837454907258321</v>
+        <v>0.009981402111228175</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.4167625</v>
+        <v>4.346963</v>
       </c>
       <c r="H13">
-        <v>8.833525</v>
+        <v>13.040889</v>
       </c>
       <c r="I13">
-        <v>0.1834597547841511</v>
+        <v>0.1645104172589132</v>
       </c>
       <c r="J13">
-        <v>0.1302731285986587</v>
+        <v>0.1791736951596531</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2142455</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N13">
-        <v>0.428491</v>
+        <v>0.365222</v>
       </c>
       <c r="O13">
-        <v>0.291505084495164</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P13">
-        <v>0.2152524509656171</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q13">
-        <v>0.94627149019375</v>
+        <v>0.5292021735953333</v>
       </c>
       <c r="R13">
-        <v>3.785085960775</v>
+        <v>4.762819562358</v>
       </c>
       <c r="S13">
-        <v>0.05347945131981603</v>
+        <v>0.0315242163715353</v>
       </c>
       <c r="T13">
-        <v>0.02804161022582032</v>
+        <v>0.03529039905774532</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.559845333333333</v>
+        <v>6.487399</v>
       </c>
       <c r="H14">
-        <v>13.679536</v>
+        <v>12.974798</v>
       </c>
       <c r="I14">
-        <v>0.1894030088117685</v>
+        <v>0.2455150219624727</v>
       </c>
       <c r="J14">
-        <v>0.2017400700737227</v>
+        <v>0.1782656459701541</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.07058066666666667</v>
+        <v>0.011782</v>
       </c>
       <c r="N14">
-        <v>0.211742</v>
+        <v>0.035346</v>
       </c>
       <c r="O14">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P14">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q14">
-        <v>0.3218369235235555</v>
+        <v>0.076434535018</v>
       </c>
       <c r="R14">
-        <v>2.896532311712</v>
+        <v>0.458607210108</v>
       </c>
       <c r="S14">
-        <v>0.01818892597194621</v>
+        <v>0.004553153672433013</v>
       </c>
       <c r="T14">
-        <v>0.02145880725913332</v>
+        <v>0.003398077807393969</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.559845333333333</v>
+        <v>6.487399</v>
       </c>
       <c r="H15">
-        <v>13.679536</v>
+        <v>12.974798</v>
       </c>
       <c r="I15">
-        <v>0.1894030088117685</v>
+        <v>0.2455150219624727</v>
       </c>
       <c r="J15">
-        <v>0.2017400700737227</v>
+        <v>0.1782656459701541</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,33 +1364,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.4501370000000001</v>
+        <v>0.450137</v>
       </c>
       <c r="N15">
         <v>1.350411</v>
       </c>
       <c r="O15">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P15">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q15">
-        <v>2.052555098810667</v>
+        <v>2.920218323663</v>
       </c>
       <c r="R15">
-        <v>18.472995889296</v>
+        <v>17.521309941978</v>
       </c>
       <c r="S15">
-        <v>0.1160021427525094</v>
+        <v>0.1739554349556933</v>
       </c>
       <c r="T15">
-        <v>0.1368562182732452</v>
+        <v>0.1298252036994482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.559845333333333</v>
+        <v>6.487399</v>
       </c>
       <c r="H16">
-        <v>13.679536</v>
+        <v>12.974798</v>
       </c>
       <c r="I16">
-        <v>0.1894030088117685</v>
+        <v>0.2455150219624727</v>
       </c>
       <c r="J16">
-        <v>0.2017400700737227</v>
+        <v>0.1782656459701541</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,338 @@
         <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.2142455</v>
+        <v>0.051649</v>
       </c>
       <c r="N16">
-        <v>0.428491</v>
+        <v>0.103298</v>
       </c>
       <c r="O16">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P16">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q16">
-        <v>0.9769263433626666</v>
+        <v>0.335067670951</v>
       </c>
       <c r="R16">
-        <v>5.861558060176</v>
+        <v>1.340270683804</v>
       </c>
       <c r="S16">
-        <v>0.05521194008731287</v>
+        <v>0.01995975505240983</v>
       </c>
       <c r="T16">
-        <v>0.04342504454134416</v>
+        <v>0.009930816537887801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.487399</v>
+      </c>
+      <c r="H17">
+        <v>12.974798</v>
+      </c>
+      <c r="I17">
+        <v>0.2455150219624727</v>
+      </c>
+      <c r="J17">
+        <v>0.1782656459701541</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.365222</v>
+      </c>
+      <c r="O17">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P17">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q17">
+        <v>0.7897802791926667</v>
+      </c>
+      <c r="R17">
+        <v>4.738681675156</v>
+      </c>
+      <c r="S17">
+        <v>0.04704667828193655</v>
+      </c>
+      <c r="T17">
+        <v>0.03511154792542409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.098167333333333</v>
+      </c>
+      <c r="H18">
+        <v>15.294502</v>
+      </c>
+      <c r="I18">
+        <v>0.1929396765655534</v>
+      </c>
+      <c r="J18">
+        <v>0.2101369346036688</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.011782</v>
+      </c>
+      <c r="N18">
+        <v>0.035346</v>
+      </c>
+      <c r="O18">
+        <v>0.0185453160301082</v>
+      </c>
+      <c r="P18">
+        <v>0.0190618769471875</v>
+      </c>
+      <c r="Q18">
+        <v>0.06006660752133334</v>
+      </c>
+      <c r="R18">
+        <v>0.5405994676920001</v>
+      </c>
+      <c r="S18">
+        <v>0.003578127276655049</v>
+      </c>
+      <c r="T18">
+        <v>0.004005604389474323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.098167333333333</v>
+      </c>
+      <c r="H19">
+        <v>15.294502</v>
+      </c>
+      <c r="I19">
+        <v>0.1929396765655534</v>
+      </c>
+      <c r="J19">
+        <v>0.2101369346036688</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.450137</v>
+      </c>
+      <c r="N19">
+        <v>1.350411</v>
+      </c>
+      <c r="O19">
+        <v>0.7085327552066554</v>
+      </c>
+      <c r="P19">
+        <v>0.7282682145116399</v>
+      </c>
+      <c r="Q19">
+        <v>2.294873748924667</v>
+      </c>
+      <c r="R19">
+        <v>20.653863740322</v>
+      </c>
+      <c r="S19">
+        <v>0.1367040806256725</v>
+      </c>
+      <c r="T19">
+        <v>0.1530360501667631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.098167333333333</v>
+      </c>
+      <c r="H20">
+        <v>15.294502</v>
+      </c>
+      <c r="I20">
+        <v>0.1929396765655534</v>
+      </c>
+      <c r="J20">
+        <v>0.2101369346036688</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.051649</v>
+      </c>
+      <c r="N20">
+        <v>0.103298</v>
+      </c>
+      <c r="O20">
+        <v>0.08129749003896268</v>
+      </c>
+      <c r="P20">
+        <v>0.05570796596193557</v>
+      </c>
+      <c r="Q20">
+        <v>0.2633152445993334</v>
+      </c>
+      <c r="R20">
+        <v>1.579891467596</v>
+      </c>
+      <c r="S20">
+        <v>0.01568551143370876</v>
+      </c>
+      <c r="T20">
+        <v>0.01170630120024667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.098167333333333</v>
+      </c>
+      <c r="H21">
+        <v>15.294502</v>
+      </c>
+      <c r="I21">
+        <v>0.1929396765655534</v>
+      </c>
+      <c r="J21">
+        <v>0.2101369346036688</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.365222</v>
+      </c>
+      <c r="O21">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P21">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q21">
+        <v>0.6206542899382222</v>
+      </c>
+      <c r="R21">
+        <v>5.585888609444</v>
+      </c>
+      <c r="S21">
+        <v>0.03697195722951706</v>
+      </c>
+      <c r="T21">
+        <v>0.04138897884718472</v>
       </c>
     </row>
   </sheetData>
